--- a/modules/log/Админ - Ербол.xlsx
+++ b/modules/log/Админ - Ербол.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1150,9 +1150,53 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Админ - Ербол</v>
+      </c>
+      <c r="B18" t="str">
+        <v>20006</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Эргешов Б</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Ибн Сина</v>
+      </c>
+      <c r="E18" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F18" t="str">
+        <v>76596</v>
+      </c>
+      <c r="G18" t="str">
+        <v>760</v>
+      </c>
+      <c r="H18" t="str">
+        <v>780</v>
+      </c>
+      <c r="I18" t="str">
+        <v>20</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K18" t="str">
+        <v>6</v>
+      </c>
+      <c r="L18" t="str">
+        <v>3</v>
+      </c>
+      <c r="M18" t="str">
+        <v>13</v>
+      </c>
+      <c r="N18" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N18"/>
   </ignoredErrors>
 </worksheet>
 </file>